--- a/data/income_statement/2digits/size/70_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/70_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>70-Activities of head offices; management consultancy activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>70-Activities of head offices; management consultancy activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,287 +841,327 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>362812.22295</v>
+        <v>407801.47527</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>485947.56787</v>
+        <v>537898.81339</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>734371.51673</v>
+        <v>793077.4665099999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>644330.3214499999</v>
+        <v>719784.67617</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>820281.38296</v>
+        <v>929743.8478</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>972035.78425</v>
+        <v>1100069.6769</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1060867.04034</v>
+        <v>1229730.10164</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1230467.08425</v>
+        <v>1408440.71118</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1479155.28019</v>
+        <v>1689164.17628</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2557414.36068</v>
+        <v>2900102.27134</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3149140.04178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3687861.32878</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3962964.006</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>293088.46873</v>
+        <v>324791.14352</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>398739.6458599999</v>
+        <v>440168.55592</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>536039.6000099999</v>
+        <v>581289.1786500001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>537106.96788</v>
+        <v>594419.80693</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>682696.9093300001</v>
+        <v>767578.8045</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>781265.34275</v>
+        <v>882746.9623400001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>907513.6371599999</v>
+        <v>1041638.32856</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1070415.90395</v>
+        <v>1210180.43634</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1154524.69888</v>
+        <v>1322787.70649</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2134139.95888</v>
+        <v>2394687.38747</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2552245.08932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2984183.11467</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3148946.422</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>57325.32531</v>
+        <v>58855.82282</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>63548.80229</v>
+        <v>68025.05637000001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>178430.56722</v>
+        <v>184054.92481</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>86862.19640999999</v>
+        <v>92635.80336999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>113814.26122</v>
+        <v>124434.77262</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>160730.8272</v>
+        <v>172693.48257</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>116849.07003</v>
+        <v>130738.06818</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>116675.33383</v>
+        <v>134633.67415</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>283621.48419</v>
+        <v>301438.47633</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>349389.88406</v>
+        <v>387916.94046</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>509743.20703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>567824.76997</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>658215.738</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>12398.42891</v>
+        <v>24154.50893</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>23659.11972</v>
+        <v>29705.2011</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>19901.3495</v>
+        <v>27733.36305</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>20361.15716</v>
+        <v>32729.06587</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>23770.21241</v>
+        <v>37730.27068</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>30039.6143</v>
+        <v>44629.23198999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>36504.33315</v>
+        <v>57353.7049</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>43375.84647</v>
+        <v>63626.60069</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>41009.09712</v>
+        <v>64937.99346</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>73884.51774</v>
+        <v>117497.94341</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>87151.74543</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>135853.44414</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>155801.846</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2458.80369</v>
+        <v>2662.78648</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2432.27257</v>
+        <v>2735.6316</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4391.48205</v>
+        <v>5824.87453</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3799.38247</v>
+        <v>4006.89609</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3098.94461</v>
+        <v>4406.05947</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4438.28421</v>
+        <v>6012.376039999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4753.63499</v>
+        <v>5716.898340000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5463.088839999999</v>
+        <v>8294.303739999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>5796.47139</v>
+        <v>8425.867620000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>18257.69954</v>
+        <v>25502.26643</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>18912.37759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>23261.14188</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>62492.329</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1847.7236</v>
+        <v>1962.11547</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2256.06516</v>
+        <v>2559.01959</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4149.85125</v>
+        <v>5580.56007</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3507.75379</v>
+        <v>3702.62188</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2754.99924</v>
+        <v>3270.8191</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3854.1012</v>
+        <v>5174.39446</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4430.57586</v>
+        <v>5314.12151</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4809.617260000001</v>
+        <v>7284.57232</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>5436.95368</v>
+        <v>7090.09764</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>15937.08334</v>
+        <v>22744.87336</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>16918.09168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20444.69358</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>58500.547</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>439.80499</v>
+        <v>529.3959100000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>147.13506</v>
+        <v>147.53966</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>94.99279</v>
+        <v>95.03379</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>165.40842</v>
+        <v>170.01449</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>149.12845</v>
+        <v>150.67305</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>189.95113</v>
+        <v>435.50122</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>186.11928</v>
+        <v>207.97903</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>198.78001</v>
+        <v>528.55599</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>123.78008</v>
+        <v>435.3373</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1323.58539</v>
+        <v>1730.80083</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1290.04558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1868.30516</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1295.076</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>171.2751</v>
@@ -1229,856 +1170,966 @@
         <v>29.07235</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>146.63801</v>
+        <v>149.28067</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>126.22026</v>
+        <v>134.25972</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>194.81692</v>
+        <v>984.56732</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>394.23188</v>
+        <v>402.48036</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>136.93985</v>
+        <v>194.7978</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>454.69157</v>
+        <v>481.17543</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>235.73763</v>
+        <v>900.43268</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>997.0308100000001</v>
+        <v>1026.59224</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>704.24033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>948.14314</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2696.706</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>360353.41926</v>
+        <v>405138.68879</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>483515.2952999999</v>
+        <v>535163.1817899999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>729980.03468</v>
+        <v>787252.59198</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>640530.93898</v>
+        <v>715777.7800799999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>817182.4383500001</v>
+        <v>925337.7883299999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>967597.5000400001</v>
+        <v>1094057.30086</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1056113.40535</v>
+        <v>1224013.2033</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1225003.99541</v>
+        <v>1400146.40744</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1473358.8088</v>
+        <v>1680738.30866</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2539156.66114</v>
+        <v>2874600.00491</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3130227.66419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3664600.1869</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3900471.677</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>201517.89121</v>
+        <v>214693.34288</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>278183.00665</v>
+        <v>297537.63229</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>468775.99703</v>
+        <v>490112.7477000001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>364389.44389</v>
+        <v>390868.84706</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>465357.73696</v>
+        <v>511916.15348</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>530935.59942</v>
+        <v>590575.62824</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>578491.80563</v>
+        <v>664754.20843</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>681077.8800300001</v>
+        <v>764390.1597</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>885495.8478099999</v>
+        <v>979737.2314800001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1517449.24274</v>
+        <v>1650042.19511</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1924364.05478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2184988.21361</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2204168.183</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1863.85833</v>
+        <v>2446.19115</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3573.03473</v>
+        <v>3931.6394</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6985.53412</v>
+        <v>7383.960980000001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>8603.34209</v>
+        <v>9362.77684</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6657.5734</v>
+        <v>7456.968940000001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7912.42799</v>
+        <v>8915.85325</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>11946.02795</v>
+        <v>14053.77084</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>8852.2925</v>
+        <v>11831.60074</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>12553.29887</v>
+        <v>15601.56185</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>30742.57149</v>
+        <v>34395.19779999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>33331.43449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>47927.9236</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>61034.392</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>51890.78797999999</v>
+        <v>53647.42729</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>86387.79700000001</v>
+        <v>89552.60507999999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>226643.7524</v>
+        <v>231326.40302</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>93944.15136999999</v>
+        <v>102961.21413</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>107401.82292</v>
+        <v>117087.22467</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>151485.64194</v>
+        <v>168737.42172</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>131546.54292</v>
+        <v>154349.18022</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>182598.66931</v>
+        <v>195753.16915</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>367306.53455</v>
+        <v>386481.95069</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>426323.7157700001</v>
+        <v>459539.74729</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>635065.80738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>730587.5884700001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>769243.3860000001</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>145901.79658</v>
+        <v>154670.79088</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>186731.19501</v>
+        <v>200709.43334</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>234712.84574</v>
+        <v>249202.44929</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>260588.3536</v>
+        <v>276722.1248</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>349931.41529</v>
+        <v>383734.41756</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>369281.78781</v>
+        <v>410132.93819</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>431222.35658</v>
+        <v>492070.22465</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>482792.32696</v>
+        <v>548806.03</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>501099.21082</v>
+        <v>571500.7799099999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1045084.89226</v>
+        <v>1136028.13573</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1235235.50427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1383454.57686</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1351765.126</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1861.44832</v>
+        <v>3928.93356</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1490.97991</v>
+        <v>3343.95447</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>433.86477</v>
+        <v>2199.93441</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1253.59683</v>
+        <v>1822.73129</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1366.92535</v>
+        <v>3637.54231</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2255.74168</v>
+        <v>2789.41508</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3776.87818</v>
+        <v>4281.03272</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6834.59126</v>
+        <v>7999.35981</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4536.80357</v>
+        <v>6152.93903</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>15298.06322</v>
+        <v>20079.11429</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>20731.30864</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>23018.12468</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>22125.279</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>158835.52805</v>
+        <v>190445.34591</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>205332.28865</v>
+        <v>237625.5495</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>261204.03765</v>
+        <v>297139.84428</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>276141.49509</v>
+        <v>324908.9330200001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>351824.70139</v>
+        <v>413421.63485</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>436661.90062</v>
+        <v>503481.67262</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>477621.5997199999</v>
+        <v>559258.9948700001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>543926.11538</v>
+        <v>635756.24774</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>587862.9609900001</v>
+        <v>701001.0771799999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1021707.4184</v>
+        <v>1224557.8098</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1205863.60941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1479611.97329</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1696303.494</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>145266.48955</v>
+        <v>297689.90752</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>180660.95549</v>
+        <v>324771.66291</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>227726.82528</v>
+        <v>393769.5837</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>252337.30978</v>
+        <v>433298.13346</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>323634.05741</v>
+        <v>596548.9000799999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>409205.74705</v>
+        <v>735455.05903</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>451342.09326</v>
+        <v>770525.19223</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>514163.81569</v>
+        <v>878150.99781</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>574461.70789</v>
+        <v>968404.24268</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>919821.0056700001</v>
+        <v>1571312.11178</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1060590.24449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1764525.97104</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1844403.691</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>311.35799</v>
+        <v>424.66849</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1433.09276</v>
+        <v>1563.66508</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1808.17748</v>
+        <v>1905.30443</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1947.85427</v>
+        <v>2430.78676</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1711.10405</v>
+        <v>2192.38318</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1493.6815</v>
+        <v>1650.02839</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2555.96276</v>
+        <v>3770.86528</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>5654.89711</v>
+        <v>7347.10385</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1585.67581</v>
+        <v>3106.72424</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3810.55474</v>
+        <v>5337.34834</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4009.94678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6415.25927</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6713.824</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>14697.14551</v>
+        <v>20182.42805</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>16403.60721</v>
+        <v>20987.95685</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>21219.34768</v>
+        <v>29162.92862</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>25249.59824</v>
+        <v>38581.36556</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>32070.12774</v>
+        <v>49189.4386</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>36606.26008</v>
+        <v>51536.38715</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>44484.27392</v>
+        <v>69806.5359</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>48083.00636</v>
+        <v>72444.74307000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>58835.88683</v>
+        <v>67335.08982000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>101368.01782</v>
+        <v>115269.76622</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>126603.6923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>141930.63733</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>156304.474</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>130257.98605</v>
+        <v>277082.81098</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>162824.25552</v>
+        <v>302220.04098</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>204699.30012</v>
+        <v>362701.35065</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>225139.85727</v>
+        <v>392285.98114</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>289852.82562</v>
+        <v>545167.0782999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>371105.80547</v>
+        <v>682268.64349</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>404301.85658</v>
+        <v>696947.79105</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>460425.9122200001</v>
+        <v>798359.1508899999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>514040.14525</v>
+        <v>897962.4286199999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>814642.43311</v>
+        <v>1450704.99722</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>929976.60541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1616180.07444</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1681385.393</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>13569.0385</v>
+        <v>-107244.56161</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>24671.33316</v>
+        <v>-87146.11340999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>33477.21236999999</v>
+        <v>-96629.73941999998</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>23804.18531</v>
+        <v>-108389.20044</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>28190.64398</v>
+        <v>-183127.26523</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>27456.15357</v>
+        <v>-231973.38641</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>26279.50646</v>
+        <v>-211266.19736</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>29762.29969</v>
+        <v>-242394.75007</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>13401.2531</v>
+        <v>-267403.1655</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>101886.41273</v>
+        <v>-346754.30198</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>145273.36492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-284913.99775</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-148100.197</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>9756.878500000001</v>
+        <v>1574020.95996</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>14138.27619</v>
+        <v>1932667.98451</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>15178.02018</v>
+        <v>2646566.09145</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>12456.40895</v>
+        <v>2583694.72036</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>17937.99033</v>
+        <v>3856003.4763</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>25633.07502</v>
+        <v>3768899.82076</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>28525.76015</v>
+        <v>7096161.2022</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>33242.00537</v>
+        <v>4820647.64941</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>43235.74765999999</v>
+        <v>6907556.13496</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>181449.00779</v>
+        <v>13641717.11179</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>94423.26996000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>14312597.68384</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>14175760.075</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>690.31677</v>
+        <v>381074.0407000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>353.15387</v>
+        <v>497170.91912</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>637.30319</v>
+        <v>466144.73138</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>776.00749</v>
+        <v>636538.44638</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1159.68227</v>
+        <v>986663.9464299999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>478.2867900000001</v>
+        <v>1106339.60706</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>832.76363</v>
+        <v>1779666.37989</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2143.10152</v>
+        <v>1170014.71389</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>384.28649</v>
+        <v>2846617.93518</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4798.70085</v>
+        <v>1620354.6642</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3196.35466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3408200.90033</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2411827.056</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>169.70517</v>
+        <v>331350.54528</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>13.89148</v>
+        <v>409115.07581</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>137.12084</v>
+        <v>759003.5422799999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>10.47291</v>
+        <v>568069.0450800001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>118.41264</v>
+        <v>1084655.0494</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>579596.20214</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>35.12398</v>
+        <v>2736652.51968</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0.01569</v>
+        <v>1029315.07387</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>979083.7310799999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>3221715.52985</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4467803.471059999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1884718.583</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1368.69298</v>
+        <v>142424.47978</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1450.88443</v>
+        <v>118089.27205</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1631.09991</v>
+        <v>326064.20196</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2297.35355</v>
+        <v>505064.59059</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2530.25846</v>
+        <v>501049.27275</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3914.95526</v>
+        <v>644355.73965</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4018.2586</v>
+        <v>811958.13504</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4164.15873</v>
+        <v>687703.6766600001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>7684.22637</v>
+        <v>503317.0045</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>16418.74143</v>
+        <v>893969.2216</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>18317.74604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>820445.8713100001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>641167.63</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>127.28256</v>
+        <v>345.71732</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>226.74562</v>
+        <v>920.68636</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>716.91551</v>
+        <v>873.9556100000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>202.83808</v>
+        <v>404.78844</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1108.9813</v>
+        <v>1173.48907</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1163.60455</v>
+        <v>1721.33301</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>458.73342</v>
+        <v>816.6989600000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>603.1929399999999</v>
+        <v>1875.99305</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>520.0376</v>
+        <v>1577.28571</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1283.21377</v>
+        <v>10343.77073</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1607.19375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>11829.06652</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>18493.169</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>120.23239</v>
+        <v>167368.80797</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>218.04437</v>
+        <v>187403.94984</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>258.80692</v>
+        <v>226116.52996</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>205.29437</v>
+        <v>227340.47827</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>489.03775</v>
+        <v>256915.55946</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>617.21322</v>
+        <v>209140.94669</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>497.01491</v>
+        <v>200971.03397</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>500.83951</v>
+        <v>173969.65288</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>645.91142</v>
+        <v>219649.24588</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>715.60569</v>
+        <v>194920.66909</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1006.02804</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>262764.80103</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>264779.758</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>706.22621</v>
+        <v>33036.598</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>121.21462</v>
+        <v>149738.78071</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>522.9125</v>
+        <v>180172.15487</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>385.04383</v>
+        <v>42696.47949</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>531.1702299999999</v>
+        <v>58515.55177</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2976.90316</v>
+        <v>127600.75063</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>596.56972</v>
+        <v>153987.14289</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>642.30273</v>
+        <v>49729.44637</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1068.77516</v>
+        <v>126805.01726</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>8680.139939999999</v>
+        <v>550885.71554</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2306.43205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>281568.03909</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>597151.327</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4598.868699999999</v>
+        <v>472216.7841099999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>9650.576940000001</v>
+        <v>490548.70688</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>8379.80401</v>
+        <v>415024.3728</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4734.31508</v>
+        <v>528233.5464</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>8923.528050000001</v>
+        <v>791349.5828499999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8929.14711</v>
+        <v>980516.7507299999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>16398.6724</v>
+        <v>1225207.23182</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>16285.22318</v>
+        <v>1569169.84164</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>21946.39827</v>
+        <v>1956978.41431</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>127472.10933</v>
+        <v>6983846.607540001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>49556.42487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4441134.824229999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7170809.584</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>43.81422</v>
+        <v>1416.10056</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>48.10078</v>
+        <v>746.78578</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>0.15416</v>
+        <v>449.95441</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>6.67858</v>
+        <v>510.06402</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>7.14</v>
+        <v>226.90861</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>8.0923</v>
+        <v>793.46524</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2.53522</v>
+        <v>591.55261</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>44.59975</v>
+        <v>796.27144</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>33.01269</v>
+        <v>81.17180999999999</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>54.64853</v>
+        <v>218.12407</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>58.46194000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>137671.72939</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>678718.1040000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1.1914</v>
@@ -2087,310 +2138,350 @@
         <v>1.82602</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>38.52592</v>
+        <v>290.69051</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>7.446</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>2.63276</v>
+        <v>4.12778</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>468.39094</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>37.37064</v>
+        <v>60.68016</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0.9034</v>
+        <v>4.9298</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>5.6509</v>
+        <v>138.55399</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>165.80924</v>
+        <v>167.14674</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>240.61937</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>257.58781</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>901.056</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1930.5481</v>
+        <v>44786.69484</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2053.83806</v>
+        <v>78931.98194</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2855.37722</v>
+        <v>272425.95767</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3830.95906</v>
+        <v>74829.83568999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3067.14687</v>
+        <v>175449.98818</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>7544.872630000001</v>
+        <v>118366.63467</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5648.71763</v>
+        <v>186249.82718</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>8857.66792</v>
+        <v>138068.04981</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>10947.44876</v>
+        <v>273307.77524</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>21860.03901</v>
+        <v>165295.66243</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>18134.00924</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>480921.39307</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>507193.808</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5636.45272</v>
+        <v>394994.5126599999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>10396.49608</v>
+        <v>405730.74872</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>11105.72784</v>
+        <v>462045.3512</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>11722.71863</v>
+        <v>384597.77429</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>10422.06921</v>
+        <v>1796611.44426</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>11637.96681</v>
+        <v>1109719.46017</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>16077.17154</v>
+        <v>1980710.28559</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>21392.16914</v>
+        <v>2057553.57404</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>34271.20922</v>
+        <v>2152469.83545</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>266497.70872</v>
+        <v>6878686.54352</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>59896.88933999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7449852.78497</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>12596837.384</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>165.45891</v>
+        <v>828.1316899999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>299.54818</v>
+        <v>688.76437</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>378.83504</v>
+        <v>2354.52256</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>108.7488</v>
+        <v>1547.93413</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>300.29257</v>
+        <v>2062.2673</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>799.12431</v>
+        <v>2560.65782</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>759.73675</v>
+        <v>2382.31482</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>290.64796</v>
+        <v>1494.10339</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>265.81315</v>
+        <v>807.4616100000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1257.55011</v>
+        <v>2428.37733</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1349.63052</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2015.34486</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>274465.063</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>406.57075</v>
+        <v>43607.94912</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>214.67357</v>
+        <v>4589.68127</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1005.27657</v>
+        <v>4111.62027</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>638.14628</v>
+        <v>14209.7191</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>743.8745600000001</v>
+        <v>34913.43821</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>815.58557</v>
+        <v>9249.57906</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1304.00393</v>
+        <v>9956.7986</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2233.38193</v>
+        <v>74712.52962999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1136.75854</v>
+        <v>20031.3297</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2854.21684</v>
+        <v>29105.44189</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4785.827740000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>37959.8632</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>49952.652</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>156.59007</v>
+        <v>14736.57263</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>45.07585</v>
+        <v>44722.14496</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>413.11874</v>
+        <v>28195.56693</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>6115.76835</v>
+        <v>20272.40179</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>345.45894</v>
+        <v>87835.41943000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>14.48713</v>
+        <v>69597.46424</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>358.22686</v>
+        <v>17967.97743</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>5117.82928</v>
+        <v>105524.90824</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1192.39745</v>
+        <v>18527.13587</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>144374.53522</v>
+        <v>214949.61625</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>212.69653</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>51845.01156</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>39700.684</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4163.67431</v>
+        <v>323503.05724</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>8854.587529999999</v>
+        <v>339158.13726</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>7417.727869999999</v>
+        <v>357355.48845</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>4247.90626</v>
+        <v>322552.66596</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>7990.18043</v>
+        <v>1546429.70588</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8568.617269999999</v>
+        <v>982753.5535999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12752.18964</v>
+        <v>1448561.53401</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11039.44985</v>
+        <v>1847871.53439</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>22263.94105</v>
+        <v>2075262.61517</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>111957.51856</v>
+        <v>6583047.506010001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>45490.96391000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7246683.35691</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>12033986.794</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>2511.72199</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0.10452</v>
+        <v>509.01275</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0</v>
+        <v>1524.98552</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0.10208</v>
+        <v>405.97208</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3.98763</v>
+        <v>1348.7598</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>9.097100000000001</v>
+        <v>1305.45751</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0.46496</v>
+        <v>2091.70671</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>101.85824</v>
+        <v>479.08413</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>45.02496</v>
+        <v>91.64082000000001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>62.47417</v>
+        <v>8028.659009999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>89.39842</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>20097.02219</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>32359.241</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>2.52164</v>
@@ -2408,16 +2499,16 @@
         <v>10.77723</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>14.41673</v>
+        <v>184.10791</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>282653.8253</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>1.36905</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>155.89118</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>6.18812</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>503.898</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>741.6370400000001</v>
+        <v>9804.558349999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>973.9998900000001</v>
+        <v>16054.50157</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1684.76962</v>
+        <v>68297.16747</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>612.04684</v>
+        <v>25609.08121</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1027.49785</v>
+        <v>124011.07641</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1416.6387</v>
+        <v>44068.64003</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>902.5494</v>
+        <v>217096.12872</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2609.00188</v>
+        <v>27471.41426</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>9367.274069999999</v>
+        <v>37748.28323</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5835.522640000001</v>
+        <v>40971.05185</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>7962.184099999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>91245.99812999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>165869.052</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2310.51748</v>
+        <v>433667.93241</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4170.69454</v>
+        <v>530409.75751</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5042.39721</v>
+        <v>595472.00865</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4898.34182</v>
+        <v>443569.9004700001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6625.35759</v>
+        <v>760075.10192</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8387.759400000001</v>
+        <v>404436.76544</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>9475.156349999999</v>
+        <v>587077.5556699999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>9583.229140000001</v>
+        <v>1068883.03182</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>11502.48385</v>
+        <v>1035071.68456</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>27565.65257</v>
+        <v>3069933.40436</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>29388.34321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4596366.027</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3541485.814</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2250.65112</v>
+        <v>183343.1881</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3967.03583</v>
+        <v>275422.37681</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>4926.34916</v>
+        <v>505170.6683500001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4779.06356</v>
+        <v>183350.61931</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>6371.904790000001</v>
+        <v>342051.4749799999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8245.806490000001</v>
+        <v>356074.05898</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9300.999040000001</v>
+        <v>434530.58198</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>9478.741830000001</v>
+        <v>674321.16759</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>11159.78443</v>
+        <v>830992.6057</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>26576.02448</v>
+        <v>1916829.5078</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>28413.41223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2079602.16029</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1642698.333</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>59.86636</v>
+        <v>250324.74431</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>203.65871</v>
+        <v>254987.3807</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>116.04805</v>
+        <v>90301.3403</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>119.27826</v>
+        <v>260219.28116</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>253.4528</v>
+        <v>418023.62694</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>141.95291</v>
+        <v>48362.70646</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>174.15731</v>
+        <v>152546.97369</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>104.48731</v>
+        <v>394561.86423</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>342.69942</v>
+        <v>204079.07886</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>989.6280899999999</v>
+        <v>1153103.89656</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>974.93098</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2516763.86671</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1898787.481</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>15378.9468</v>
+        <v>638113.9532800001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>24242.41873</v>
+        <v>909381.36487</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>32507.1075</v>
+        <v>1492418.99218</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>19639.53381</v>
+        <v>1647137.84516</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>29081.20751</v>
+        <v>1116189.66489</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>33063.50238000001</v>
+        <v>2022770.20874</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>29252.93872</v>
+        <v>4317107.163579999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>32028.90678</v>
+        <v>1451816.29348</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>10863.30769</v>
+        <v>3452611.44945</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-10727.94076999998</v>
+        <v>3346342.86193</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>150411.40233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1981464.874120001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-2110663.32</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2779.18504</v>
+        <v>71033.43778000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>15381.75689</v>
+        <v>122664.0039</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4958.03938</v>
+        <v>45245.31438</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6592.419779999999</v>
+        <v>68324.27029</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9794.786459999999</v>
+        <v>835023.78243</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>10290.29918</v>
+        <v>157101.5772</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>13376.4358</v>
+        <v>121248.70679</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>17775.27412</v>
+        <v>180539.02743</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>20005.63757</v>
+        <v>240036.54723</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>30853.96344</v>
+        <v>1129378.01069</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>44618.04843</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>695080.3622000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>461254.559</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>150.68393</v>
+        <v>4583.65179</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>268.38811</v>
+        <v>6898.480630000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>682.43085</v>
+        <v>773.5355</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>39.60012</v>
+        <v>1591.28092</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>69.06094999999999</v>
+        <v>4330.79115</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>212.43488</v>
+        <v>574.61411</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>159.91828</v>
+        <v>1113.44575</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>205.62608</v>
+        <v>784.22133</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>321.03288</v>
+        <v>3418.67047</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>476.19664</v>
+        <v>856.13644</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>422.24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>796.91395</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>57529.093</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2628.50111</v>
+        <v>66449.78598999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>15113.36878</v>
+        <v>115765.52327</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4275.60853</v>
+        <v>44471.77888000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6552.81966</v>
+        <v>66732.98937000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9725.72551</v>
+        <v>830692.99128</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>10077.8643</v>
+        <v>156526.96309</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>13216.51752</v>
+        <v>120135.26104</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>17569.64804</v>
+        <v>179754.8061</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>19684.60469</v>
+        <v>236617.87676</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>30377.7668</v>
+        <v>1128521.87425</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>44195.80843</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>694283.44825</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>403725.466</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4298.669059999999</v>
+        <v>36091.35215</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>43314.64383</v>
+        <v>326788.1623800001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>48604.58207</v>
+        <v>203436.64518</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7884.42422</v>
+        <v>37533.95282999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11138.93394</v>
+        <v>274219.37082</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>56045.28382</v>
+        <v>200145.19624</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>14065.11529</v>
+        <v>269429.5651</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>93117.83334</v>
+        <v>319511.46719</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>43219.04313</v>
+        <v>217560.54071</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>557941.7382</v>
+        <v>1598377.68963</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>56162.92533000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1127793.8342</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>733999.1090000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>210.54332</v>
+        <v>234.9217</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>61.47919</v>
+        <v>88.95783999999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>239.90273</v>
+        <v>514.19841</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>94.973</v>
+        <v>439.92417</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>84.82628</v>
+        <v>790.9153299999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>35.802</v>
+        <v>309.26867</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>67.61066000000001</v>
+        <v>773.1854299999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>71.75847999999999</v>
+        <v>396.18027</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>342.1833</v>
+        <v>472.28451</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>75.59197</v>
+        <v>187.33921</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>142.77348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>303.81635</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>634.644</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>557.4817</v>
+        <v>9108.93195</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1633.91492</v>
+        <v>5087.08047</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1086.467</v>
+        <v>6030.62089</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>802.65697</v>
+        <v>3013.9379</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>587.45192</v>
+        <v>1734.85377</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1571.0295</v>
+        <v>7529.68421</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>645.88789</v>
+        <v>2858.75986</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>884.6522899999999</v>
+        <v>20568.84754</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1116.7448</v>
+        <v>8586.158670000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1759.01874</v>
+        <v>30025.01822</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2321.27911</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4400.987679999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>49890.319</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3530.64404</v>
+        <v>26747.4985</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>41619.24972000001</v>
+        <v>321612.12407</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>47278.21234</v>
+        <v>196891.82588</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6986.79425</v>
+        <v>34080.09076</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10466.65574</v>
+        <v>271693.60172</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>54438.45232</v>
+        <v>192306.24336</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>13351.61674</v>
+        <v>265797.61981</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>92161.42257</v>
+        <v>298546.43938</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>41760.11503</v>
+        <v>208502.09753</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>556107.12749</v>
+        <v>1568165.3322</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>53698.87273999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1123089.03017</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>683474.1459999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>13859.46278</v>
+        <v>673056.03891</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-3690.468210000001</v>
+        <v>705257.2063900001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-11139.43519</v>
+        <v>1334227.66138</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>18347.52937</v>
+        <v>1677928.16262</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>27737.06003</v>
+        <v>1676994.0765</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-12691.48226</v>
+        <v>1979726.5897</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>28564.25923</v>
+        <v>4168926.30527</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-43313.65244</v>
+        <v>1312843.85372</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-12350.09787</v>
+        <v>3475087.45597</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-537815.7155299999</v>
+        <v>2877343.18299</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>138866.52543</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1548751.40212</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-2383407.87</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>8030.309520000001</v>
+        <v>34890.93365</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>9774.7219</v>
+        <v>27177.8287</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>13698.58749</v>
+        <v>70575.93895</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>12501.85653</v>
+        <v>105589.97307</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>16868.08661</v>
+        <v>114609.284</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>20293.45946</v>
+        <v>139295.55769</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>21240.28258</v>
+        <v>184798.65719</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>24726.99456</v>
+        <v>167266.06989</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>26100.61152</v>
+        <v>104208.6416</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>60093.79751</v>
+        <v>333882.8506</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>70958.33914</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>206918.96134</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>318016.665</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>5829.153260000001</v>
+        <v>638165.10526</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-13465.19011</v>
+        <v>678079.3776900001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-24838.02268</v>
+        <v>1263651.72243</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5845.67284</v>
+        <v>1572338.18955</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>10868.97342</v>
+        <v>1562384.7925</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-32984.94172</v>
+        <v>1840431.03201</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>7323.97665</v>
+        <v>3984127.64808</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-68040.647</v>
+        <v>1145577.78383</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-38450.70939</v>
+        <v>3370878.81437</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-597909.51304</v>
+        <v>2543460.33239</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>67908.18629</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1341832.44078</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-2701424.535</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2796</v>
+        <v>3168</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3307</v>
+        <v>3721</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3590</v>
+        <v>4022</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3773</v>
+        <v>4258</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4570</v>
+        <v>5250</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4969</v>
+        <v>5724</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5399</v>
+        <v>6295</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5886</v>
+        <v>6898</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>6484</v>
+        <v>7509</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7680</v>
+        <v>8933</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>8479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>10265</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>11580</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>